--- a/NformTester/NformTester/keywordscripts/TST990_CreateNewUser.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST990_CreateNewUser.xlsx
@@ -4714,7 +4714,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/keywordscripts/TST990_CreateNewUser.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST990_CreateNewUser.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7273" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7274" uniqueCount="838">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3781,6 +3781,10 @@
   </si>
   <si>
     <t>"Nform"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4713,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4898,7 +4902,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="6">
-        <v>41045</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4957,9 +4961,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>837</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4988,11 +4992,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5020,8 +5022,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5049,10 +5055,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5081,7 +5085,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4">
@@ -5112,7 +5116,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4">
@@ -5143,7 +5147,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4">
@@ -5174,7 +5178,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4">
@@ -5205,7 +5209,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4">
@@ -5235,10 +5239,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5268,7 +5272,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5301,11 +5305,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5335,9 +5337,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5366,7 +5370,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -5394,6 +5398,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
